--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603367.0907465452</v>
+        <v>555650.7954634198</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12396860.33795848</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7855246.046027727</v>
+        <v>6381813.161497336</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8883562.200712783</v>
+        <v>9580421.07714317</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.33592091243867</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9.673283225096309</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>202.6250809127426</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>8.916409259873442</v>
+        <v>51.69875676570065</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.52558716632</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>165.1725371760946</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>187.52558716632</v>
+        <v>108.2201906297054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>138.2613113589521</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>68.1016107515069</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>187.52558716632</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>51.39476878015907</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>187.52558716632</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>161.8294550022488</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>187.52558716632</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.7138800015061</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>232.2791855053265</v>
+        <v>290.197994673151</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>186.2842666650719</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>64.59335705340894</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>171.2770776263195</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>101.2064265969618</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>212.2389816846941</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14.20188851094958</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.781160222249666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>299.0569210101527</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>67.3374237151332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>105.5027752869404</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>120.6088074159623</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>199.0545280582616</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.380068175847845</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.3785837344371</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041384</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>305.9840058034982</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>24.01006515217614</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7965692041384</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>57.92518451681224</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>66.06391530585718</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>91.61745183476873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>245.7853873250209</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>85.65576091831647</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.0652379404853</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>53.85366032725344</v>
+        <v>12.27673055432601</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.39022724310146</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>154.3376078668597</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>6.85257720799312</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>107.9784290126182</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>74.70459810936937</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.0955237083908</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>36.34690181272053</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>190.192112940037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>234.8758626236981</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>96.31572829406701</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>229.6551996059913</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>166.990464400201</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>99.50249420969799</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>356.5788332184732</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>61.17118126752713</v>
+        <v>11.42490606886662</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>28.90798465780319</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>135.2874680438085</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>186.59783505537</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678659</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678659</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678659</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678659</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678659</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>710.0001061843508</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>710.0001061843508</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>710.0001061843508</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>520.5803211678659</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>520.5803211678659</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>520.5803211678659</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>520.5803211678659</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.2164318224395</v>
+        <v>180.334565405576</v>
       </c>
       <c r="C3" t="n">
-        <v>372.4454386657766</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>223.5110290045253</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>1021.314552263895</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389244</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389244</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389244</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>382.2164318224395</v>
+        <v>850.1837211042644</v>
       </c>
       <c r="W3" t="n">
-        <v>382.2164318224395</v>
+        <v>595.9463643760628</v>
       </c>
       <c r="X3" t="n">
-        <v>382.2164318224395</v>
+        <v>388.0948641705299</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.2164318224395</v>
+        <v>180.334565405576</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>262.5553157873391</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>448.2056470819959</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>615.938338957512</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>426.5185539410271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>237.0987689245422</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>47.67898390805738</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>38.67250990818521</v>
+        <v>736.256897008846</v>
       </c>
       <c r="W4" t="n">
-        <v>38.67250990818521</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818521</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818521</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.6825636487951</v>
+        <v>1391.720654864719</v>
       </c>
       <c r="C5" t="n">
-        <v>560.6825636487951</v>
+        <v>1391.720654864719</v>
       </c>
       <c r="D5" t="n">
-        <v>560.6825636487951</v>
+        <v>1033.454956257969</v>
       </c>
       <c r="E5" t="n">
-        <v>560.6825636487951</v>
+        <v>647.6667036597246</v>
       </c>
       <c r="F5" t="n">
-        <v>371.2627786323102</v>
+        <v>647.6667036597246</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897904</v>
+        <v>231.6356583631318</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678466</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058916</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079182</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644753</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985584</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020267</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652799</v>
+        <v>1778.320494928841</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154.6599372348734</v>
+        <v>741.3181542686448</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>566.8651249875178</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>417.9307153262665</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>258.693260320811</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>112.158702347696</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>112.158702347696</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024222</v>
+        <v>371.4749568374567</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>629.0260923974442</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>948.9329878659535</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>1291.715511860585</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476351</v>
+        <v>1583.074758115151</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017065</v>
+        <v>2061.271547415447</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652799</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R6" t="n">
-        <v>722.919292284328</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>722.919292284328</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T6" t="n">
-        <v>533.4995072678431</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U6" t="n">
-        <v>344.0797222513582</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V6" t="n">
-        <v>344.0797222513582</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W6" t="n">
-        <v>154.6599372348734</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="X6" t="n">
-        <v>154.6599372348734</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="Y6" t="n">
-        <v>154.6599372348734</v>
+        <v>909.5334912887129</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>410.3058812997315</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>358.391973440985</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>358.391973440985</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>358.391973440985</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>187.8896250884407</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>373.5399563830974</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>559.1902876777542</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>721.9284911143044</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652799</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846276</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>746.7254979846276</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S7" t="n">
-        <v>557.3057129681428</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T7" t="n">
-        <v>393.8416170062753</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U7" t="n">
-        <v>204.4218319897904</v>
+        <v>954.407539542579</v>
       </c>
       <c r="V7" t="n">
-        <v>204.4218319897904</v>
+        <v>699.7230513366922</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>410.3058812997315</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>410.3058812997315</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>410.3058812997315</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.7225503044907</v>
+        <v>1113.627677512999</v>
       </c>
       <c r="C8" t="n">
-        <v>21.09711040012049</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D8" t="n">
-        <v>21.09711040012049</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="E8" t="n">
-        <v>21.09711040012049</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515905</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030603</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991316</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1054.855520006025</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1054.855520006025</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1054.855520006025</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>788.4778634388466</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>522.1002068716687</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.5501396812475</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>21.09711040012049</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>21.09711040012049</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>21.09711040012049</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>21.09711040012049</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>21.09711040012049</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>21.09711040012049</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957465</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>247.7358133554696</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>438.3365024519934</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>648.3904695545984</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560896</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>1054.855520006025</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>826.7196740428381</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>591.5675658110954</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>403.4016398867803</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>195.5501396812475</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>195.5501396812475</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>424.4249251342374</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>255.4887422063304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>255.4887422063304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>255.4887422063304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>255.4887422063304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2429270008669</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>36.32155393434483</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>36.32155393434483</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375337</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227046</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075543</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1054.855520006025</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1054.855520006025</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1054.855520006025</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1054.855520006025</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W10" t="n">
-        <v>1054.855520006025</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X10" t="n">
-        <v>826.8659691080072</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>606.0733899644771</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>909.6965460670935</v>
+        <v>2102.480899540949</v>
       </c>
       <c r="C11" t="n">
-        <v>909.6965460670935</v>
+        <v>1733.518382600538</v>
       </c>
       <c r="D11" t="n">
-        <v>909.6965460670935</v>
+        <v>1375.252683993787</v>
       </c>
       <c r="E11" t="n">
-        <v>523.9082934688493</v>
+        <v>989.464431395543</v>
       </c>
       <c r="F11" t="n">
-        <v>421.6795797345444</v>
+        <v>578.4785266059355</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6795797345444</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>117.6204357321147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>2353.59368700598</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2353.59368700598</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2022.530799662409</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W11" t="n">
-        <v>1669.762144392295</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X11" t="n">
-        <v>1296.296386131215</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y11" t="n">
-        <v>1296.296386131215</v>
+        <v>2489.080739605071</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966384</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155114</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542601</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488045</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756896</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>507.2413987429757</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>801.9449557744474</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1165.206974733667</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.492103330613</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1884.562538506775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.24678656800311</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C13" t="n">
-        <v>51.24678656800311</v>
+        <v>80.85745836243552</v>
       </c>
       <c r="D13" t="n">
-        <v>51.24678656800311</v>
+        <v>80.85745836243552</v>
       </c>
       <c r="E13" t="n">
-        <v>51.24678656800311</v>
+        <v>80.85745836243552</v>
       </c>
       <c r="F13" t="n">
-        <v>51.24678656800311</v>
+        <v>80.85745836243552</v>
       </c>
       <c r="G13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>825.137147448514</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426272</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056666</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X13" t="n">
-        <v>53.04593830764924</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.24678656800311</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1412.134398099142</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1043.17188115873</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1043.17188115873</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>657.3836285604862</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>657.3836285604862</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>355.3059305704328</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800311</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X14" t="n">
-        <v>2188.873570139076</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1798.734238163264</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>302.14468917569</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182524</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500114</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>560.1394111735141</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>854.8429682049857</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1218.104987164206</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.390115761151</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>1937.460550937313</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.023413292609</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.24678656800311</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C16" t="n">
-        <v>51.24678656800311</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D16" t="n">
-        <v>51.24678656800311</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E16" t="n">
-        <v>51.24678656800311</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F16" t="n">
-        <v>51.24678656800311</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800311</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800311</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312199</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693234</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096587</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.817372234359</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1333.24891234856</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1044.130574852398</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>789.4460866465112</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>500.0289166095505</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>272.0393657115332</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.24678656800311</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
         <v>66.51211643218343</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3093.488074938325</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.488074938325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>3093.488074938325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.25366140713</v>
+        <v>1981.200874796715</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.0519063245727</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C19" t="n">
-        <v>380.0519063245727</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D19" t="n">
-        <v>380.0519063245727</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>380.0519063245727</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>380.0519063245727</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>212.3490696992916</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218343</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983425</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X19" t="n">
-        <v>782.4929502983425</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y19" t="n">
-        <v>561.7003711548124</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038044</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097633</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490882</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926379</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
-        <v>298.6298631030303</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218343</v>
@@ -5752,52 +5752,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339058</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077978</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102166</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.7753643667</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763052</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888696</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682809</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645848</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.128788747831</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y22" t="n">
-        <v>1646.471854783102</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038044</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097633</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.404020490882</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926379</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030303</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218343</v>
@@ -5989,13 +5989,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6004,7 +6004,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609172</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609172</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609172</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339058</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077978</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102166</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
         <v>765.1517452158132</v>
@@ -6080,34 +6080,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>403.1511359853714</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6150,16 +6150,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783663</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577776</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408152</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>805.5921799591413</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.7996008156111</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.836169983545</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>3122.772272495085</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2770.00361722497</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X26" t="n">
-        <v>2396.53785896389</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y26" t="n">
-        <v>2006.398526988078</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1868.193637087723</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>1699.257454159816</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>1699.257454159816</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>1551.344360577423</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>1551.344360577423</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3103.839206178696</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>2814.73633930434</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V28" t="n">
-        <v>2560.051851098453</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W28" t="n">
-        <v>2270.634681061492</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X28" t="n">
-        <v>2270.634681061492</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y28" t="n">
-        <v>2049.842101917962</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C29" t="n">
-        <v>867.3728191854311</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2489.924953962486</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C31" t="n">
-        <v>2320.988771034579</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.872131622243</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.95903803985</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.06909054194</v>
+        <v>368.6258768172142</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916659</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>3044.089480193526</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>3044.089480193526</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>2754.672310156565</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>2526.682759258548</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y31" t="n">
-        <v>2526.682759258548</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1628.17820394412</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C32" t="n">
-        <v>1259.215687003708</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>900.9499883969577</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>515.1617357987134</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6703,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269321</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008242</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y32" t="n">
-        <v>2014.778044008242</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.4482993600903</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.4482993600903</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1506.396382525582</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.43386558517</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1681669784198</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E35" t="n">
-        <v>779.1681669784198</v>
+        <v>971.281412372397</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>560.2955075827895</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>145.2230574277859</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6961,13 +6961,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
         <v>2755.806928794324</v>
@@ -6976,13 +6976,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1506.396382525582</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7022,16 +7022,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1600.215744761477</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.798574724517</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.809023826499</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2218.876689164175</v>
+        <v>1529.83239115168</v>
       </c>
       <c r="C38" t="n">
-        <v>1849.914172223764</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7183,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2609.016021139987</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2218.876689164175</v>
+        <v>1529.83239115168</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,16 +7259,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888694</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682807</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>1989.118339645846</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>1761.128788747829</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>1540.336209604299</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796252</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392135</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D41" t="n">
-        <v>452.3003690304276</v>
+        <v>1177.259159988174</v>
       </c>
       <c r="E41" t="n">
-        <v>66.5121164321834</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
@@ -7414,13 +7414,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
         <v>529.0179941377679</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>529.0179941377679</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.0179941377679</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796261</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>892.5704713767946</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7657,7 +7657,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2174.098823536668</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>2174.098823536668</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>2023.982184124332</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>1876.069090541939</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>3188.951813484112</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>2899.848946609755</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V46" t="n">
-        <v>2645.164458403869</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W46" t="n">
-        <v>2355.747288366908</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X46" t="n">
-        <v>2355.747288366908</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y46" t="n">
-        <v>2355.747288366908</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>145.2551346857773</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>266.3518926660566</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457084</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711117</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>46.56605103777618</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418266</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.9377812015499</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>180.5549891403835</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>130.4398922776144</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22628,10 +22628,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>163.0352157632194</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>30.17550623668268</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917622</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378008</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>243.2212340639546</v>
+        <v>200.4388865581274</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971606</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>247.9252960539635</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399023</v>
+        <v>196.1066141264777</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.44718762936361</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>26.39920251034825</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681242</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377095</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459963</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>115.8520523184688</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917625</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>61.89021848785129</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7394943271303</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>98.99741117027102</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>132.9937062656811</v>
+        <v>75.07489709785654</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>412.83417464571</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>65.41071649584771</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>102.2903099851376</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>305.6696191447496</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>198.6827439687594</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>151.8239197480787</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.8034931298451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>112.4907817628012</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>98.68838454389503</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>115.2459207102716</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>83.30916272365779</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>170.6765726202075</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3764311798836957</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>181.125156449315</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>80.25393285255535</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>201.699590236861</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0742887270133</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>181.125156449315</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>145.9927856228079</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>159.64574008318</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24499,13 +24499,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>236.1348066353662</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>103.4555813923921</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>80.37004734071175</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>134.0724053833427</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>311.4192314437541</v>
+        <v>352.9961612166815</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>143.4417529388358</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.68820039216851</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>375.8812644554874</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>298.8976167290932</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>211.8184002272216</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.48912964370402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>258.2608625745999</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>196.0458257160166</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>17.26178070012992</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>122.2689250580278</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>125.0278420146917</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>219.2474742558526</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>25.35153685378862</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>164.53847412151</v>
+        <v>214.2847493201705</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>336.3649071132044</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>222.7020862222426</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>84.26148123236067</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>31.98681829672481</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469204.3889465106</v>
+        <v>531745.8774266867</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469204.3889465106</v>
+        <v>726949.4244662803</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>531745.8774266867</v>
+        <v>795881.4350570394</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795881.4350570394</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795881.4350570394</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877471.8739210084</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210083</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877471.873921008</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171419.5356187816</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187815</v>
+        <v>265569.8802231801</v>
       </c>
       <c r="D2" t="n">
-        <v>193768.2521372567</v>
+        <v>290673.0489695931</v>
       </c>
       <c r="E2" t="n">
-        <v>290673.0489695931</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="F2" t="n">
-        <v>290673.0489695932</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="G2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="H2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="H2" t="n">
-        <v>323947.2440223746</v>
-      </c>
       <c r="I2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="L2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="M2" t="n">
         <v>323947.2440223745</v>
-      </c>
-      <c r="L2" t="n">
-        <v>323947.2440223743</v>
-      </c>
-      <c r="M2" t="n">
-        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223744</v>
@@ -26355,7 +26355,7 @@
         <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414034</v>
       </c>
       <c r="D3" t="n">
-        <v>79834.34398878347</v>
+        <v>99404.18284596107</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.271430143</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341908</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854433</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447145</v>
       </c>
       <c r="L3" t="n">
-        <v>19282.57122195002</v>
+        <v>24921.83922824953</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676275</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431073</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9240.880119453528</v>
+        <v>11859.77526465972</v>
       </c>
       <c r="C4" t="n">
-        <v>9240.880119453526</v>
+        <v>14549.24850679122</v>
       </c>
       <c r="D4" t="n">
-        <v>11859.77526465972</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="E4" t="n">
-        <v>16175.59256035157</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
-        <v>16175.59256035158</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
         <v>8550.515172066862</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486164.047433131</v>
+        <v>-571555.0221096136</v>
       </c>
       <c r="C6" t="n">
-        <v>105192.8550877144</v>
+        <v>-148901.2740104844</v>
       </c>
       <c r="D6" t="n">
-        <v>39026.32967954731</v>
+        <v>76928.03840154414</v>
       </c>
       <c r="E6" t="n">
-        <v>-154434.9874607462</v>
+        <v>55541.21917366256</v>
       </c>
       <c r="F6" t="n">
-        <v>215187.283969397</v>
+        <v>237614.1989908533</v>
       </c>
       <c r="G6" t="n">
-        <v>67726.50725472352</v>
+        <v>237614.1989908532</v>
       </c>
       <c r="H6" t="n">
-        <v>241090.3882889144</v>
+        <v>237614.1989908533</v>
       </c>
       <c r="I6" t="n">
-        <v>241090.3882889142</v>
+        <v>237614.1989908533</v>
       </c>
       <c r="J6" t="n">
-        <v>192025.4435603699</v>
+        <v>168615.0445717391</v>
       </c>
       <c r="K6" t="n">
-        <v>241090.3882889143</v>
+        <v>165962.6706763818</v>
       </c>
       <c r="L6" t="n">
-        <v>221807.8170669642</v>
+        <v>212692.3597626037</v>
       </c>
       <c r="M6" t="n">
-        <v>147172.6395421515</v>
+        <v>190061.9331974384</v>
       </c>
       <c r="N6" t="n">
-        <v>241090.3882889142</v>
+        <v>237614.1989908532</v>
       </c>
       <c r="O6" t="n">
-        <v>195170.1770746035</v>
+        <v>237614.1989908532</v>
       </c>
       <c r="P6" t="n">
-        <v>241090.3882889143</v>
+        <v>237614.1989908532</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129047</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175392</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="D3" t="n">
-        <v>65.58507285657356</v>
+        <v>80.35422757985521</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480611</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="D4" t="n">
-        <v>76.18829283518616</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985327</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.7138800015061</v>
+      </c>
+      <c r="K4" t="n">
+        <v>278.4010767246567</v>
+      </c>
+      <c r="L4" t="n">
+        <v>98.46987537387554</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.816623302254</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663195</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>76.18829283518582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>376.8709520985327</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>76.18829283518616</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>33.87976539609076</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>157.4143504322381</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781477</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>483.0270598992895</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880152</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>187.52558716632</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>187.52558716632</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>28.45844197068235</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>153.4895779655505</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>263.7138800015061</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649638</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091745</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>397.6203974676407</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820406</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>568.1422977634695</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091742</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820405</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>514.7099619750473</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308546</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555650.7954634198</v>
+        <v>596513.8153873399</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12500319.53076206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6381813.161497336</v>
+        <v>7426899.604845122</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9580421.07714317</v>
+        <v>9066172.114820998</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>232.2791855053265</v>
+        <v>182.5570120086798</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>202.6250809127426</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>32.35016756540409</v>
       </c>
       <c r="V4" t="n">
-        <v>51.69875676570065</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>56.56995359489687</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="H5" t="n">
-        <v>108.2201906297054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>239.8079481415045</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>68.1016107515069</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>115.5736814104687</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>51.39476878015907</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>137.3500051193447</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>290.197994673151</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>129.5382780816532</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.625702131307</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>113.8114413631374</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.2770776263195</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2389816846941</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.18469166041425</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>14.20188851094958</v>
+        <v>109.2549254032457</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>264.9486589497404</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>67.3374237151332</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>92.70483570961531</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>199.0545280582616</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>358.3405420785539</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.380068175847845</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>12.87606160420887</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>305.9840058034982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>141.1670621529072</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>24.01006515217614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>180.5023720079011</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>57.92518451681224</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>69.81472657146871</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>245.7853873250209</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>345.3374211735832</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>129.7170174396221</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>118.0652379404853</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>12.27673055432601</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>22.11196976343481</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.3376078668597</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>100.3565319570702</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.85257720799312</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>46.25417384166566</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847874</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>74.70459810936937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>8.751194497889847</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>36.34690181272053</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3325,10 +3325,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>63.72703424640825</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.31572829406701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>206.1807275362172</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.990464400201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.626889274476</v>
+        <v>78.53075888137357</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>356.5788332184732</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>209.6931219609831</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>11.42490606886662</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951704</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>61.41699360806135</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>235.9955072668619</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.59783505537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388466</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388466</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044907</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372648</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.334565405576</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>180.334565405576</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V3" t="n">
-        <v>850.1837211042644</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>595.9463643760628</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X3" t="n">
-        <v>388.0948641705299</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>180.334565405576</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V4" t="n">
-        <v>736.256897008846</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>469.8792404416679</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>241.8896895436506</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1391.720654864719</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.720654864719</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.454956257969</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="E5" t="n">
-        <v>647.6667036597246</v>
+        <v>503.6451371472891</v>
       </c>
       <c r="F5" t="n">
-        <v>647.6667036597246</v>
+        <v>261.4148864993047</v>
       </c>
       <c r="G5" t="n">
-        <v>231.6356583631318</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904653</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.459826904653</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="Y5" t="n">
-        <v>1778.320494928841</v>
+        <v>560.7865044148617</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741.3181542686448</v>
+        <v>168.1190455125716</v>
       </c>
       <c r="C6" t="n">
-        <v>566.8651249875178</v>
+        <v>168.1190455125716</v>
       </c>
       <c r="D6" t="n">
-        <v>417.9307153262665</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E6" t="n">
-        <v>258.693260320811</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F6" t="n">
-        <v>112.158702347696</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G6" t="n">
-        <v>112.158702347696</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J6" t="n">
-        <v>214.3836900926279</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K6" t="n">
-        <v>371.4749568374567</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L6" t="n">
-        <v>629.0260923974442</v>
+        <v>251.3857061532881</v>
       </c>
       <c r="M6" t="n">
-        <v>948.9329878659535</v>
+        <v>430.8830425078927</v>
       </c>
       <c r="N6" t="n">
-        <v>1291.715511860585</v>
+        <v>668.2929111679822</v>
       </c>
       <c r="O6" t="n">
-        <v>1583.074758115151</v>
+        <v>827.8052238367426</v>
       </c>
       <c r="P6" t="n">
-        <v>2061.271547415447</v>
+        <v>936.4948513640412</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059887</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406371</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T6" t="n">
-        <v>1834.784844880347</v>
+        <v>762.2424967261056</v>
       </c>
       <c r="U6" t="n">
-        <v>1606.683255013611</v>
+        <v>645.5014043922988</v>
       </c>
       <c r="V6" t="n">
-        <v>1371.531146781868</v>
+        <v>410.349296160556</v>
       </c>
       <c r="W6" t="n">
-        <v>1117.293790053667</v>
+        <v>168.1190455125716</v>
       </c>
       <c r="X6" t="n">
-        <v>1117.293790053667</v>
+        <v>168.1190455125716</v>
       </c>
       <c r="Y6" t="n">
-        <v>909.5334912887129</v>
+        <v>168.1190455125716</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410.3058812997315</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="C7" t="n">
-        <v>358.391973440985</v>
+        <v>305.8351083421425</v>
       </c>
       <c r="D7" t="n">
-        <v>358.391973440985</v>
+        <v>305.8351083421425</v>
       </c>
       <c r="E7" t="n">
-        <v>358.391973440985</v>
+        <v>157.9220147597493</v>
       </c>
       <c r="F7" t="n">
-        <v>211.5020259430747</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>833.7842159674025</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>959.231792566018</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R7" t="n">
-        <v>1377.190882465729</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.011396849955</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T7" t="n">
-        <v>954.407539542579</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U7" t="n">
-        <v>954.407539542579</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V7" t="n">
-        <v>699.7230513366922</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="W7" t="n">
-        <v>410.3058812997315</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="X7" t="n">
-        <v>410.3058812997315</v>
+        <v>474.7712912700493</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.3058812997315</v>
+        <v>474.7712912700493</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1113.627677512999</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="C8" t="n">
-        <v>820.4983899643612</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="D8" t="n">
-        <v>462.2326913576106</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2326913576106</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="F8" t="n">
-        <v>51.2467865680031</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>924.0087744690013</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>670.32375641013</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.22751757712</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.22751757712</v>
+        <v>403.9460998429521</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>337.330209082894</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145195</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>100.9913896951731</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>247.7358133554698</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>438.3365024519936</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>648.3904695545987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>337.330209082894</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>337.330209082894</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>744.414527010468</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>575.4783440825611</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>575.4783440825611</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>575.4783440825611</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>428.5883965846507</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="V10" t="n">
-        <v>673.036065727045</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.2467865680031</v>
+        <v>926.0629918407077</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.480899540949</v>
+        <v>1590.457996649223</v>
       </c>
       <c r="C11" t="n">
-        <v>1733.518382600538</v>
+        <v>1221.495479708811</v>
       </c>
       <c r="D11" t="n">
-        <v>1375.252683993787</v>
+        <v>1221.495479708811</v>
       </c>
       <c r="E11" t="n">
-        <v>989.464431395543</v>
+        <v>1221.495479708811</v>
       </c>
       <c r="F11" t="n">
-        <v>578.4785266059355</v>
+        <v>810.5095749192039</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>395.4248561750688</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>97.71561009539244</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.194385163531</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.546497866151</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.080739605071</v>
+        <v>2367.197168689157</v>
       </c>
       <c r="Y11" t="n">
-        <v>2489.080739605071</v>
+        <v>1977.057836713345</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520676</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365796</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.009445431871</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249.7936412903424</v>
+        <v>638.6666783099465</v>
       </c>
       <c r="C13" t="n">
-        <v>80.85745836243552</v>
+        <v>469.7304953820396</v>
       </c>
       <c r="D13" t="n">
-        <v>80.85745836243552</v>
+        <v>469.7304953820396</v>
       </c>
       <c r="E13" t="n">
-        <v>80.85745836243552</v>
+        <v>469.7304953820396</v>
       </c>
       <c r="F13" t="n">
-        <v>80.85745836243552</v>
+        <v>322.8405478841293</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.4820373758002</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1699.861054503353</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1156.073399244925</v>
       </c>
       <c r="W13" t="n">
-        <v>880.2242361621296</v>
+        <v>866.6562292079639</v>
       </c>
       <c r="X13" t="n">
-        <v>652.2346852641123</v>
+        <v>638.6666783099465</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.4421061205821</v>
+        <v>638.6666783099465</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1246.723135529484</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>877.7606185890727</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5311,19 +5311,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>231.8553933260938</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C16" t="n">
-        <v>231.8553933260938</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D16" t="n">
-        <v>231.8553933260938</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E16" t="n">
-        <v>231.8553933260938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F16" t="n">
-        <v>231.8553933260938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,10 +5457,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
         <v>1735.608663915319</v>
@@ -5469,19 +5469,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1420.200800293314</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1594.601034732593</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C17" t="n">
-        <v>1225.638517792182</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653545</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X17" t="n">
-        <v>1981.200874796715</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y17" t="n">
-        <v>1981.200874796715</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,46 +5582,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.8928126690276</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C19" t="n">
-        <v>72.95662974112065</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X19" t="n">
-        <v>644.3338566427974</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.5412774992673</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1208.812782134349</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C20" t="n">
-        <v>839.8502651939375</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D20" t="n">
-        <v>481.5845665871869</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>494.5906894197212</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>79.51823926471764</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>79.51823926471764</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796418</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535338</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y20" t="n">
-        <v>1595.412622198471</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1179.52858457759</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C23" t="n">
-        <v>810.5660676371781</v>
+        <v>1049.69844747624</v>
       </c>
       <c r="D23" t="n">
-        <v>452.3003690304276</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E23" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3267.095534218452</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3013.565057492288</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2682.502170148718</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2329.733514878603</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>1956.267756617523</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.128424641711</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1232.248790760447</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>863.2862738200351</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
         <v>66.51211643218343</v>
@@ -6226,22 +6226,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>2382.45372106146</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X26" t="n">
-        <v>2008.98796280038</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y26" t="n">
-        <v>1618.848630824569</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>810.1619238931563</v>
       </c>
       <c r="C28" t="n">
         <v>679.1346335501037</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V28" t="n">
-        <v>1586.270116556519</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W28" t="n">
-        <v>1296.852946519558</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X28" t="n">
-        <v>1068.863395621541</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y28" t="n">
-        <v>848.0708164780106</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796252</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="C29" t="n">
-        <v>909.3697179459625</v>
+        <v>1956.54334596639</v>
       </c>
       <c r="D29" t="n">
-        <v>909.3697179459625</v>
+        <v>1598.27764735964</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>1212.489394761396</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>801.5034899717882</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>386.4310398167847</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>88.8474394255519</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6496,19 +6496,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2325.505862906802</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.4520072430315</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C31" t="n">
-        <v>515.5158243151246</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D31" t="n">
-        <v>515.5158243151246</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>515.5158243151246</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>368.6258768172142</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1825.924313788422</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1604.157698357948</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1315.054831483591</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>1060.370343277704</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>770.9531732407439</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="Y31" t="n">
-        <v>866.1004720732712</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.511388127729</v>
+        <v>1938.90602284268</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.548871187317</v>
+        <v>1569.943505902269</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1211.677807295518</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>825.889554697274</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6703,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6733,19 +6733,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.038273524209</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.572515263129</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.433183287318</v>
+        <v>2325.505862906802</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>553.2677753977071</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C34" t="n">
-        <v>384.3315924698002</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1259.157560278958</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>1183.698370269494</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>955.7088193714769</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.9162402279468</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1698.509627919559</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C35" t="n">
-        <v>1329.547110979147</v>
+        <v>1626.778813528712</v>
       </c>
       <c r="D35" t="n">
-        <v>971.281412372397</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>971.281412372397</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>560.2955075827895</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>145.2230574277859</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y35" t="n">
-        <v>1698.509627919559</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7086,13 +7086,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,22 +7122,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1862.923806425454</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1862.923806425454</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1573.820939551098</v>
       </c>
       <c r="V37" t="n">
-        <v>1416.425065783662</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.007895746702</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.007895746702</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y37" t="n">
         <v>1029.71928130825</v>
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1529.83239115168</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C38" t="n">
-        <v>1160.869874211268</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D38" t="n">
-        <v>1160.869874211268</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E38" t="n">
-        <v>775.0816216130238</v>
+        <v>572.3590779711103</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>572.3590779711103</v>
       </c>
       <c r="G38" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y38" t="n">
-        <v>1529.83239115168</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,16 +7259,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1751.913851851648</v>
+        <v>1847.970549218418</v>
       </c>
       <c r="T40" t="n">
-        <v>1530.147236421175</v>
+        <v>1626.203933787945</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.044369546818</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V40" t="n">
-        <v>986.3598813409312</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W40" t="n">
-        <v>696.9427113039706</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1904.487375535336</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C41" t="n">
-        <v>1535.524858594925</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.259159988174</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796416</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535336</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y41" t="n">
-        <v>1904.487375535336</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>860.7830983803434</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>860.7830983803434</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
         <v>66.5121164321834</v>
@@ -7836,22 +7836,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.608663915319</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1735.608663915319</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.191493878358</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>1218.201942980341</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.71928130825</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>27.64005315446175</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>39.14457273477274</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>266.3518926660566</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8388,13 +8388,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>106.0020650282192</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.9531451156648</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>5.26288739959432</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>180.5549891403835</v>
+        <v>230.5408212213782</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22634,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>30.17550623668268</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>40.60044802738304</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>253.9149139280462</v>
       </c>
       <c r="V4" t="n">
-        <v>200.4388865581274</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>326.1638880685837</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>173.1089558044323</v>
       </c>
       <c r="H5" t="n">
-        <v>196.1066141264777</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>146.4299905145491</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>26.39920251034825</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.2837182034771</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>11.88703501941509</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22944,28 +22944,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>115.8520523184688</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>8.071042903586573</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>12.32969518232349</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>46.71505019508649</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>75.07489709785654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>82.75143752157001</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.082796857008759</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,16 +23190,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>53.07222567540913</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.2459207102715</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>198.6827439687594</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>10.8604930471813</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>151.8239197480787</v>
+        <v>56.77633108983845</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>117.7851827137401</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>98.68838454389503</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.5070024959976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>170.6765726202075</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>27.89739657749971</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>28.70086816871708</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>80.25393285255535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>26.07975894572064</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>201.699590236861</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>174.1806696127819</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>145.9927856228079</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>75.60632145146253</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>103.4555813923921</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>40.90051748247043</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>37.52980365900572</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>134.0724053833427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>352.9961612166815</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>19.46496000949114</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>11.68820039216851</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>89.41249337437168</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>375.8812644554874</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>360.6218719000458</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>211.8184002272216</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>345.9318471227931</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>258.2608625745999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>126.0419910850336</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.2689250580278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>204.7409981172363</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.2474742558526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696594</v>
+        <v>111.2382664500683</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>25.35153685378862</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>41.30204999791883</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>214.2847493201705</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222426</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>308.3141070704077</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.98681829672481</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>531745.8774266867</v>
+        <v>469204.3889465103</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726949.4244662803</v>
+        <v>512616.4267801373</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>795881.4350570394</v>
+        <v>531745.8774266866</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877471.8739210081</v>
+        <v>875885.9482981046</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.873921008</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877471.8739210083</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877471.8739210083</v>
+        <v>877471.8739210084</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.873921008</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="C2" t="n">
+        <v>186902.5922223888</v>
+      </c>
+      <c r="D2" t="n">
         <v>193768.2521372568</v>
       </c>
-      <c r="C2" t="n">
-        <v>265569.8802231801</v>
-      </c>
-      <c r="D2" t="n">
-        <v>290673.0489695931</v>
-      </c>
       <c r="E2" t="n">
-        <v>323947.2440223743</v>
+        <v>323301.6211378981</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223744</v>
@@ -26334,7 +26334,7 @@
         <v>323947.2440223745</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
@@ -26346,16 +26346,16 @@
         <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414034</v>
+        <v>57873.59701082211</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596107</v>
+        <v>25049.9691811231</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>548162.4690950281</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.01047295277</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447145</v>
+        <v>13455.80667946123</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824953</v>
+        <v>6050.376200379687</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>140547.3526709353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>906.8265503278576</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9240.880119453523</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11138.47116666973</v>
+      </c>
+      <c r="D4" t="n">
         <v>11859.77526465972</v>
       </c>
-      <c r="C4" t="n">
-        <v>14549.24850679122</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16175.59256035157</v>
-      </c>
       <c r="E4" t="n">
-        <v>8550.515172066862</v>
+        <v>8694.99465449842</v>
       </c>
       <c r="F4" t="n">
         <v>8550.515172066862</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74015.36825377264</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26505,7 +26505,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-571555.0221096136</v>
+        <v>-487314.4437755876</v>
       </c>
       <c r="C6" t="n">
-        <v>-148901.2740104844</v>
+        <v>55675.91523966505</v>
       </c>
       <c r="D6" t="n">
-        <v>76928.03840154414</v>
+        <v>92777.93296853264</v>
       </c>
       <c r="E6" t="n">
-        <v>55541.21917366256</v>
+        <v>-307922.2278103887</v>
       </c>
       <c r="F6" t="n">
-        <v>237614.1989908533</v>
+        <v>237293.7588861555</v>
       </c>
       <c r="G6" t="n">
-        <v>237614.1989908532</v>
+        <v>240742.7693591081</v>
       </c>
       <c r="H6" t="n">
-        <v>237614.1989908533</v>
+        <v>240742.7693591081</v>
       </c>
       <c r="I6" t="n">
-        <v>237614.1989908533</v>
+        <v>240742.7693591081</v>
       </c>
       <c r="J6" t="n">
-        <v>168615.0445717391</v>
+        <v>191677.8246305635</v>
       </c>
       <c r="K6" t="n">
-        <v>165962.6706763818</v>
+        <v>227286.9626796469</v>
       </c>
       <c r="L6" t="n">
-        <v>212692.3597626037</v>
+        <v>234692.3931587285</v>
       </c>
       <c r="M6" t="n">
-        <v>190061.9331974384</v>
+        <v>100195.4166881729</v>
       </c>
       <c r="N6" t="n">
-        <v>237614.1989908532</v>
+        <v>239835.9428087802</v>
       </c>
       <c r="O6" t="n">
-        <v>237614.1989908532</v>
+        <v>240742.769359108</v>
       </c>
       <c r="P6" t="n">
-        <v>237614.1989908532</v>
+        <v>240742.7693591083</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
@@ -26822,10 +26822,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682059</v>
+        <v>45.00615942516004</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985521</v>
+        <v>20.57891343141375</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>472.7003933928086</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021293431011145</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246571</v>
+        <v>52.28236097518464</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387554</v>
+        <v>23.90593186000169</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>563.9851393674869</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246567</v>
+        <v>52.2823609751843</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387554</v>
+        <v>23.90593186000169</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>563.9851393674872</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246571</v>
+        <v>52.28236097518464</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387554</v>
+        <v>23.90593186000169</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>563.9851393674869</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609076</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>172.7419126813483</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>166.2558087258696</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P6" t="n">
-        <v>483.0270598992895</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>118.8138283477901</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065822</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>80.70129221722482</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
